--- a/images/images_list.xlsx
+++ b/images/images_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Willy/Documents/GitHub/WillyTheWoo/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366E3F4B-C3D9-C443-B4BA-820BE238AC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCB97B1-C5E0-6543-BA48-1B75FCE26413}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B4D89CCA-64A4-9C4E-A033-36010A77579A}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -162,10 +164,10 @@
     <t>wedding</t>
   </si>
   <si>
-    <t>.jpg" style="width:100%"&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/</t>
+    <t>.jpg" alt="Laziness" style="width:100%"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/</t>
   </si>
 </sst>
 </file>
@@ -519,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534EA705-9E42-3942-8FC5-5844F273ED3A}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,7 +539,7 @@
       </c>
       <c r="D1" t="str">
         <f>A1&amp;""&amp;C1&amp;""&amp;B1</f>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/celebrate.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/celebrate.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -552,7 +554,7 @@
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D43" si="0">A2&amp;""&amp;C2&amp;""&amp;B2</f>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/grad.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/grad.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,7 +569,7 @@
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/grocer.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/grocer.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -582,7 +584,7 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/grocery.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/grocery.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -597,7 +599,7 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/hustle.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/hustle.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -612,7 +614,7 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/sleep.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/sleep.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -627,7 +629,7 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/travelers.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/travelers.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,7 +644,7 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/art.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/art.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -657,7 +659,7 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/bench.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/bench.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -672,7 +674,7 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/brooklyn.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/brooklyn.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -687,7 +689,7 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/cat.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/cat.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,7 +704,7 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/cherry.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/cherry.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,7 +719,7 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/chicago.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/chicago.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -732,7 +734,7 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/dad.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/dad.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -747,7 +749,7 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/Dawn.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/Dawn.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -762,7 +764,7 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/Dusk.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/Dusk.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -777,7 +779,7 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/forest.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/forest.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -792,7 +794,7 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/fountain.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/fountain.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -807,7 +809,7 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/friends.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/friends.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -822,7 +824,7 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/frozen.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/frozen.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -837,7 +839,7 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/hello.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/hello.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -852,7 +854,7 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/high.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/high.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -867,7 +869,7 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/hope.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/hope.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -882,7 +884,7 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/hug.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/hug.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -897,7 +899,7 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/leap.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/leap.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -912,7 +914,7 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/mini.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/mini.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -927,7 +929,7 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/mirror.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/mirror.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -942,7 +944,7 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/mom.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/mom.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -957,7 +959,7 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/morning.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/morning.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -972,7 +974,7 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/mountain.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/mountain.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -987,7 +989,7 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/nyc.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/nyc.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1002,7 +1004,7 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/parade.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/parade.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1017,7 +1019,7 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/pathfinder.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/pathfinder.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1032,7 +1034,7 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/pond.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/pond.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1047,7 +1049,7 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/puppy.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/puppy.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1062,7 +1064,7 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/salt.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/salt.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1077,7 +1079,7 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/selfie.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/selfie.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1092,7 +1094,7 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/shore.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/shore.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1107,7 +1109,7 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/step.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/step.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1122,7 +1124,7 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/stopper.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/stopper.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1137,7 +1139,7 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/Taipei.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/Taipei.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1152,7 +1154,7 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/time.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/time.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1167,7 +1169,7 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> &lt;img class="mySlides w3-animate-fading" src="https://willythewoo.github.io/WillyTheWoo/images/wedding.jpg" style="width:100%"&gt;</v>
+        <v>&lt;img class="mySlides w3-animate-fading lazy" data-src="https://willythewoo.github.io/WillyTheWoo/images/wedding.jpg" alt="Laziness" style="width:100%"&gt;</v>
       </c>
     </row>
   </sheetData>
